--- a/resultado_a.xlsx
+++ b/resultado_a.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="IsoBrás" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MERCK" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,42 +638,44 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001021820181266451</v>
+        <v>0.004709100906332256</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03880632608519363</v>
+        <v>0.008426089719137053</v>
       </c>
       <c r="J3" t="n">
-        <v>6.038806326085194</v>
+        <v>6.008426089719137</v>
       </c>
       <c r="K3" t="n">
-        <v>-22489.85858509413</v>
+        <v>-4883.26480049045</v>
       </c>
       <c r="L3" t="n">
-        <v>337.347878776412</v>
+        <v>73.24897200735676</v>
       </c>
       <c r="M3" t="n">
-        <v>132123.8898038469</v>
+        <v>23424.77796076938</v>
       </c>
       <c r="N3" t="n">
-        <v>1321.238898038469</v>
+        <v>234.2477796076938</v>
       </c>
       <c r="O3" t="n">
-        <v>133782.4765806618</v>
+        <v>307.4967516150506</v>
       </c>
       <c r="P3" t="n">
-        <v>-127436.4943996318</v>
+        <v>6038.485429414922</v>
       </c>
       <c r="Q3" t="n">
-        <v>-987233.1404211214</v>
+        <v>17702.52802058454</v>
       </c>
       <c r="R3" t="n">
-        <v>-6.573859472513013e-06</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
+        <v>1.008526087910577e-14</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6</v>
+      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -704,37 +706,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00988951053571393</v>
+        <v>0.04904755267856965</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004012646999910885</v>
+        <v>0.0008091306609685489</v>
       </c>
       <c r="J4" t="n">
-        <v>6.004012646999911</v>
+        <v>6.000809130660969</v>
       </c>
       <c r="K4" t="n">
-        <v>-2325.493616201538</v>
+        <v>-468.9244248947708</v>
       </c>
       <c r="L4" t="n">
-        <v>34.88240424302307</v>
+        <v>7.033866373421562</v>
       </c>
       <c r="M4" t="n">
-        <v>396017.6727053894</v>
+        <v>76203.5345410779</v>
       </c>
       <c r="N4" t="n">
-        <v>3960.176727053894</v>
+        <v>762.035345410779</v>
       </c>
       <c r="O4" t="n">
-        <v>400012.7318366864</v>
+        <v>769.0692117842005</v>
       </c>
       <c r="P4" t="n">
-        <v>-393666.7496556564</v>
+        <v>5576.912969245772</v>
       </c>
       <c r="Q4" t="n">
-        <v>-3037553.606951547</v>
+        <v>-38219.93603800505</v>
       </c>
       <c r="R4" t="n">
-        <v>-2.022668175807652e-05</v>
+        <v>-2.177417966958197e-14</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
@@ -770,37 +772,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00941276335498429</v>
+        <v>0.04666381677492144</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004215864985440021</v>
+        <v>0.0008504628596597286</v>
       </c>
       <c r="J5" t="n">
-        <v>6.00421586498544</v>
+        <v>6.00085046285966</v>
       </c>
       <c r="K5" t="n">
-        <v>-2443.266778923106</v>
+        <v>-492.8781303270973</v>
       </c>
       <c r="L5" t="n">
-        <v>36.64900168384659</v>
+        <v>7.393171954906459</v>
       </c>
       <c r="M5" t="n">
-        <v>381880.5057642355</v>
+        <v>73376.10115284708</v>
       </c>
       <c r="N5" t="n">
-        <v>3818.805057642355</v>
+        <v>733.7610115284708</v>
       </c>
       <c r="O5" t="n">
-        <v>385735.9598235617</v>
+        <v>741.1541834833773</v>
       </c>
       <c r="P5" t="n">
-        <v>-379389.9776425317</v>
+        <v>5604.827997546596</v>
       </c>
       <c r="Q5" t="n">
-        <v>-2927618.137688196</v>
+        <v>-35202.37717479774</v>
       </c>
       <c r="R5" t="n">
-        <v>-1.949463550031642e-05</v>
+        <v>-2.005505411202792e-14</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
@@ -836,37 +838,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008923539010830133</v>
+        <v>0.04421769505415066</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004446973335859639</v>
+        <v>0.000897509524634188</v>
       </c>
       <c r="J6" t="n">
-        <v>6.00444697333586</v>
+        <v>6.000897509524634</v>
       </c>
       <c r="K6" t="n">
-        <v>-2577.203552734298</v>
+        <v>-520.1436034642104</v>
       </c>
       <c r="L6" t="n">
-        <v>38.65805329101446</v>
+        <v>7.802154051963156</v>
       </c>
       <c r="M6" t="n">
-        <v>367743.3388230813</v>
+        <v>70548.66776461629</v>
       </c>
       <c r="N6" t="n">
-        <v>3677.433388230813</v>
+        <v>705.4866776461629</v>
       </c>
       <c r="O6" t="n">
-        <v>371459.4302646032</v>
+        <v>713.288831698126</v>
       </c>
       <c r="P6" t="n">
-        <v>-365113.4480835732</v>
+        <v>5632.693349331847</v>
       </c>
       <c r="Q6" t="n">
-        <v>-2817684.295312038</v>
+        <v>-32185.15665160633</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.876260007579047e-05</v>
+        <v>-1.833612130927828e-14</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
@@ -902,37 +904,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008421166379287956</v>
+        <v>0.04170583189643978</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004712234551107031</v>
+        <v>0.000951563702869862</v>
       </c>
       <c r="J7" t="n">
-        <v>6.004712234551107</v>
+        <v>6.00095156370287</v>
       </c>
       <c r="K7" t="n">
-        <v>-2730.933313326906</v>
+        <v>-551.4702181689936</v>
       </c>
       <c r="L7" t="n">
-        <v>40.96399969990358</v>
+        <v>8.272053272534905</v>
       </c>
       <c r="M7" t="n">
-        <v>348893.7829015426</v>
+        <v>66778.75658030852</v>
       </c>
       <c r="N7" t="n">
-        <v>3488.937829015426</v>
+        <v>667.7875658030852</v>
       </c>
       <c r="O7" t="n">
-        <v>352423.684730258</v>
+        <v>676.05961907562</v>
       </c>
       <c r="P7" t="n">
-        <v>-346077.702549228</v>
+        <v>5669.922561954352</v>
       </c>
       <c r="Q7" t="n">
-        <v>-2671103.337365506</v>
+        <v>-28161.6823450772</v>
       </c>
       <c r="R7" t="n">
-        <v>-1.778653618628631e-05</v>
+        <v>-1.60439182988076e-14</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
@@ -968,37 +970,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007904918668977662</v>
+        <v>0.0391245933448883</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005019943574325225</v>
+        <v>0.00101434157585345</v>
       </c>
       <c r="J8" t="n">
-        <v>6.005019943574325</v>
+        <v>6.001014341575853</v>
       </c>
       <c r="K8" t="n">
-        <v>-2909.263320716229</v>
+        <v>-587.85257198051</v>
       </c>
       <c r="L8" t="n">
-        <v>43.63894981074344</v>
+        <v>8.817788579707649</v>
       </c>
       <c r="M8" t="n">
-        <v>332400.4214701962</v>
+        <v>63480.08429403924</v>
       </c>
       <c r="N8" t="n">
-        <v>3324.004214701962</v>
+        <v>634.8008429403924</v>
       </c>
       <c r="O8" t="n">
-        <v>335768.0646347089</v>
+        <v>643.6186315201001</v>
       </c>
       <c r="P8" t="n">
-        <v>-329422.0824536789</v>
+        <v>5702.363549509872</v>
       </c>
       <c r="Q8" t="n">
-        <v>-2542849.409343181</v>
+        <v>-24642.05888866285</v>
       </c>
       <c r="R8" t="n">
-        <v>-1.693250964980182e-05</v>
+        <v>-1.403876283666776e-14</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
@@ -1034,37 +1036,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H9" t="n">
-        <v>0.004321090863759887</v>
+        <v>0.02120545431879943</v>
       </c>
       <c r="I9" t="n">
-        <v>0.009182554882386285</v>
+        <v>0.001871450693045063</v>
       </c>
       <c r="J9" t="n">
-        <v>6.009182554882386</v>
+        <v>6.001871450693045</v>
       </c>
       <c r="K9" t="n">
-        <v>-5321.667408072689</v>
+        <v>-1084.582481290234</v>
       </c>
       <c r="L9" t="n">
-        <v>79.82501112109033</v>
+        <v>16.2687372193535</v>
       </c>
       <c r="M9" t="n">
-        <v>320619.4490192345</v>
+        <v>61123.88980384689</v>
       </c>
       <c r="N9" t="n">
-        <v>3206.194490192345</v>
+        <v>611.238898038469</v>
       </c>
       <c r="O9" t="n">
-        <v>323905.468520548</v>
+        <v>627.5076352578225</v>
       </c>
       <c r="P9" t="n">
-        <v>-317559.486339518</v>
+        <v>5718.47454577215</v>
       </c>
       <c r="Q9" t="n">
-        <v>-2451469.451363433</v>
+        <v>-22176.13458613786</v>
       </c>
       <c r="R9" t="n">
-        <v>-1.632402217327042e-05</v>
+        <v>-1.263390756005568e-14</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
@@ -1100,37 +1102,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007374007087641228</v>
+        <v>0.03647003543820614</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005381325702501272</v>
+        <v>0.001088171083324596</v>
       </c>
       <c r="J10" t="n">
-        <v>6.005381325702501</v>
+        <v>6.001088171083325</v>
       </c>
       <c r="K10" t="n">
-        <v>-3118.699095198208</v>
+        <v>-630.6398015195402</v>
       </c>
       <c r="L10" t="n">
-        <v>46.78048642797312</v>
+        <v>9.459597022793103</v>
       </c>
       <c r="M10" t="n">
-        <v>320619.4490192345</v>
+        <v>61123.88980384689</v>
       </c>
       <c r="N10" t="n">
-        <v>3206.194490192345</v>
+        <v>611.238898038469</v>
       </c>
       <c r="O10" t="n">
-        <v>323872.4239958548</v>
+        <v>620.6984950612621</v>
       </c>
       <c r="P10" t="n">
-        <v>-317526.4418148248</v>
+        <v>5725.28368596871</v>
       </c>
       <c r="Q10" t="n">
-        <v>-2451247.719912953</v>
+        <v>-22129.75845496931</v>
       </c>
       <c r="R10" t="n">
-        <v>-1.632254569184328e-05</v>
+        <v>-1.260748673581777e-14</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
@@ -1146,7 +1148,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1166,37 +1168,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004119558064990153</v>
+        <v>0.02019779032495076</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00963168035156059</v>
+        <v>0.001964813031122503</v>
       </c>
       <c r="J11" t="n">
-        <v>6.009631680351561</v>
+        <v>6.001964813031123</v>
       </c>
       <c r="K11" t="n">
-        <v>-5581.954049648862</v>
+        <v>-1138.689787817303</v>
       </c>
       <c r="L11" t="n">
-        <v>83.72931074473291</v>
+        <v>17.08034681725955</v>
       </c>
       <c r="M11" t="n">
-        <v>308838.4765682728</v>
+        <v>58767.69531365455</v>
       </c>
       <c r="N11" t="n">
-        <v>3088.384765682728</v>
+        <v>587.6769531365455</v>
       </c>
       <c r="O11" t="n">
-        <v>312010.5906447003</v>
+        <v>604.757299953805</v>
       </c>
       <c r="P11" t="n">
-        <v>-305664.6084636703</v>
+        <v>5741.224881076168</v>
       </c>
       <c r="Q11" t="n">
-        <v>-2359872.880135066</v>
+        <v>-19664.99064509996</v>
       </c>
       <c r="R11" t="n">
-        <v>-1.57140922967648e-05</v>
+        <v>-1.12032903216079e-14</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
@@ -1232,37 +1234,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006827573581376318</v>
+        <v>0.03373786790688158</v>
       </c>
       <c r="I12" t="n">
-        <v>0.005811956742832081</v>
+        <v>0.001176291342801505</v>
       </c>
       <c r="J12" t="n">
-        <v>6.005811956742832</v>
+        <v>6.001176291342802</v>
       </c>
       <c r="K12" t="n">
-        <v>-3368.267456239304</v>
+        <v>-681.7091083761638</v>
       </c>
       <c r="L12" t="n">
-        <v>50.52401184358957</v>
+        <v>10.22563662564246</v>
       </c>
       <c r="M12" t="n">
-        <v>301769.8930976958</v>
+        <v>57353.97861953914</v>
       </c>
       <c r="N12" t="n">
-        <v>3017.698930976958</v>
+        <v>573.5397861953915</v>
       </c>
       <c r="O12" t="n">
-        <v>304838.1160405164</v>
+        <v>583.7654228210339</v>
       </c>
       <c r="P12" t="n">
-        <v>-298492.1338594864</v>
+        <v>5762.216758208939</v>
       </c>
       <c r="Q12" t="n">
-        <v>-2304676.408238574</v>
+        <v>-18108.30112045373</v>
       </c>
       <c r="R12" t="n">
-        <v>-1.534654603563415e-05</v>
+        <v>-1.031643280919087e-14</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
@@ -1298,37 +1300,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003912768217277238</v>
+        <v>0.0191638410863862</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01014060254323113</v>
+        <v>0.002070816074592585</v>
       </c>
       <c r="J13" t="n">
-        <v>6.010140602543231</v>
+        <v>6.002070816074593</v>
       </c>
       <c r="K13" t="n">
-        <v>-5876.895345993124</v>
+        <v>-1200.122901915088</v>
       </c>
       <c r="L13" t="n">
-        <v>88.15343018989684</v>
+        <v>18.00184352872632</v>
       </c>
       <c r="M13" t="n">
-        <v>292345.1151369263</v>
+        <v>55469.02302738527</v>
       </c>
       <c r="N13" t="n">
-        <v>2923.451151369263</v>
+        <v>554.6902302738528</v>
       </c>
       <c r="O13" t="n">
-        <v>295356.7197184854</v>
+        <v>572.6920738025791</v>
       </c>
       <c r="P13" t="n">
-        <v>-289010.7375374555</v>
+        <v>5773.290107227393</v>
       </c>
       <c r="Q13" t="n">
-        <v>-2231630.689181353</v>
+        <v>-16147.92644869063</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.486014391592209e-05</v>
+        <v>-9.199592888783316e-15</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
@@ -1364,37 +1366,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H14" t="n">
-        <v>0.006264682478692937</v>
+        <v>0.03092341239346469</v>
       </c>
       <c r="I14" t="n">
-        <v>0.006334097846263376</v>
+        <v>0.001283347034132021</v>
       </c>
       <c r="J14" t="n">
-        <v>6.006334097846263</v>
+        <v>6.001283347034132</v>
       </c>
       <c r="K14" t="n">
-        <v>-3670.869654433135</v>
+        <v>-743.7522750686485</v>
       </c>
       <c r="L14" t="n">
-        <v>55.06304481649702</v>
+        <v>11.15628412602973</v>
       </c>
       <c r="M14" t="n">
-        <v>287632.7261565416</v>
+        <v>54526.54523130833</v>
       </c>
       <c r="N14" t="n">
-        <v>2876.327261565416</v>
+        <v>545.2654523130833</v>
       </c>
       <c r="O14" t="n">
-        <v>290564.1164629235</v>
+        <v>556.421736439113</v>
       </c>
       <c r="P14" t="n">
-        <v>-284218.1342818936</v>
+        <v>5789.560444590859</v>
       </c>
       <c r="Q14" t="n">
-        <v>-2194759.542243317</v>
+        <v>-15094.63358963324</v>
       </c>
       <c r="R14" t="n">
-        <v>-1.461462365466178e-05</v>
+        <v>-8.599524172420271e-15</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
@@ -1430,37 +1432,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H15" t="n">
-        <v>0.003700439258754989</v>
+        <v>0.01810219629377495</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01072232851288391</v>
+        <v>0.002192258041588957</v>
       </c>
       <c r="J15" t="n">
-        <v>6.010722328512884</v>
+        <v>6.002192258041589</v>
       </c>
       <c r="K15" t="n">
-        <v>-6214.02941953176</v>
+        <v>-1270.503505780748</v>
       </c>
       <c r="L15" t="n">
-        <v>93.21044129297641</v>
+        <v>19.05755258671122</v>
       </c>
       <c r="M15" t="n">
-        <v>280564.1426859646</v>
+        <v>53112.82853719292</v>
       </c>
       <c r="N15" t="n">
-        <v>2805.641426859646</v>
+        <v>531.1282853719292</v>
       </c>
       <c r="O15" t="n">
-        <v>283462.9945541172</v>
+        <v>550.1858379586405</v>
       </c>
       <c r="P15" t="n">
-        <v>-277117.0123730872</v>
+        <v>5795.796343071333</v>
       </c>
       <c r="Q15" t="n">
-        <v>-2140041.852740842</v>
+        <v>-13638.44503599728</v>
       </c>
       <c r="R15" t="n">
-        <v>-1.425026554438154e-05</v>
+        <v>-7.769922805004871e-15</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
@@ -1496,37 +1498,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H16" t="n">
-        <v>0.005684310834956645</v>
+        <v>0.02802155417478322</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00698071499323305</v>
+        <v>0.001416243891185331</v>
       </c>
       <c r="J16" t="n">
-        <v>6.006980714993233</v>
+        <v>6.001416243891185</v>
       </c>
       <c r="K16" t="n">
-        <v>-4045.61082840443</v>
+        <v>-820.7714578328129</v>
       </c>
       <c r="L16" t="n">
-        <v>60.68416242606645</v>
+        <v>12.31157186749219</v>
       </c>
       <c r="M16" t="n">
-        <v>273495.5592153876</v>
+        <v>51699.11184307752</v>
       </c>
       <c r="N16" t="n">
-        <v>2734.955592153876</v>
+        <v>516.9911184307751</v>
       </c>
       <c r="O16" t="n">
-        <v>276291.1989699675</v>
+        <v>529.3026902982673</v>
       </c>
       <c r="P16" t="n">
-        <v>-269945.2167889375</v>
+        <v>5816.679490731705</v>
       </c>
       <c r="Q16" t="n">
-        <v>-2084849.937124052</v>
+        <v>-12082.49605305358</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.388274962293586e-05</v>
+        <v>-6.883487184661858e-15</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
@@ -1562,37 +1564,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H17" t="n">
-        <v>0.003482265780370994</v>
+        <v>0.01701132890185497</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01139394530611071</v>
+        <v>0.002332831511353106</v>
       </c>
       <c r="J17" t="n">
-        <v>6.011393945306111</v>
+        <v>6.002332831511353</v>
       </c>
       <c r="K17" t="n">
-        <v>-6603.258914491398</v>
+        <v>-1351.971600644121</v>
       </c>
       <c r="L17" t="n">
-        <v>99.04888371737097</v>
+        <v>20.27957400966182</v>
       </c>
       <c r="M17" t="n">
-        <v>268783.1702350029</v>
+        <v>50756.63404700057</v>
       </c>
       <c r="N17" t="n">
-        <v>2687.831702350029</v>
+        <v>507.5663404700057</v>
       </c>
       <c r="O17" t="n">
-        <v>271570.0508210703</v>
+        <v>527.8459144796676</v>
       </c>
       <c r="P17" t="n">
-        <v>-265224.0686400404</v>
+        <v>5818.136266550305</v>
       </c>
       <c r="Q17" t="n">
-        <v>-2048458.259768106</v>
+        <v>-11130.09635428463</v>
       </c>
       <c r="R17" t="n">
-        <v>-1.364042208842362e-05</v>
+        <v>-6.340898046427042e-15</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
@@ -1628,37 +1630,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H18" t="n">
-        <v>0.005085337226821114</v>
+        <v>0.02502668613410556</v>
       </c>
       <c r="I18" t="n">
-        <v>0.007802795129407514</v>
+        <v>0.001585715683347644</v>
       </c>
       <c r="J18" t="n">
-        <v>6.007802795129408</v>
+        <v>6.001585715683348</v>
       </c>
       <c r="K18" t="n">
-        <v>-4522.040005630479</v>
+        <v>-918.9873165706621</v>
       </c>
       <c r="L18" t="n">
-        <v>67.83060008445719</v>
+        <v>13.78480974855993</v>
       </c>
       <c r="M18" t="n">
-        <v>254646.0032938488</v>
+        <v>47929.20065876977</v>
       </c>
       <c r="N18" t="n">
-        <v>2546.460032938488</v>
+        <v>479.2920065876977</v>
       </c>
       <c r="O18" t="n">
-        <v>257260.2939268718</v>
+        <v>493.0768163362577</v>
       </c>
       <c r="P18" t="n">
-        <v>-250914.3117458418</v>
+        <v>5852.905364693715</v>
       </c>
       <c r="Q18" t="n">
-        <v>-1938301.459267816</v>
+        <v>-8065.855350178143</v>
       </c>
       <c r="R18" t="n">
-        <v>-1.290690201420726e-05</v>
+        <v>-4.595177328632834e-15</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
@@ -1694,37 +1696,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H19" t="n">
-        <v>0.003257916374508579</v>
+        <v>0.0158895818725429</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01217835708894199</v>
+        <v>0.002497512039440153</v>
       </c>
       <c r="J19" t="n">
-        <v>6.012178357088942</v>
+        <v>6.00249751203944</v>
       </c>
       <c r="K19" t="n">
-        <v>-7057.85773504366</v>
+        <v>-1447.410725207304</v>
       </c>
       <c r="L19" t="n">
-        <v>105.8678660256549</v>
+        <v>21.71116087810956</v>
       </c>
       <c r="M19" t="n">
-        <v>249933.6143134641</v>
+        <v>46986.72286269283</v>
       </c>
       <c r="N19" t="n">
-        <v>2499.336143134641</v>
+        <v>469.8672286269283</v>
       </c>
       <c r="O19" t="n">
-        <v>252538.8183226244</v>
+        <v>491.5783895050379</v>
       </c>
       <c r="P19" t="n">
-        <v>-246192.8361415944</v>
+        <v>5854.403791524935</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1901907.584659815</v>
+        <v>-7113.171972006392</v>
       </c>
       <c r="R19" t="n">
-        <v>-1.266455984847404e-05</v>
+        <v>-4.052426576148353e-15</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
@@ -1760,37 +1762,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H20" t="n">
-        <v>0.003027030596066177</v>
+        <v>0.01473515298033088</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01310699260773163</v>
+        <v>0.002693168728683304</v>
       </c>
       <c r="J20" t="n">
-        <v>6.013106992607732</v>
+        <v>6.002693168728683</v>
       </c>
       <c r="K20" t="n">
-        <v>-7596.040129545126</v>
+        <v>-1560.801806404749</v>
       </c>
       <c r="L20" t="n">
-        <v>113.9406019431769</v>
+        <v>23.41202709607124</v>
       </c>
       <c r="M20" t="n">
-        <v>235796.4473723101</v>
+        <v>44159.28947446201</v>
       </c>
       <c r="N20" t="n">
-        <v>2357.964473723101</v>
+        <v>441.5928947446201</v>
       </c>
       <c r="O20" t="n">
-        <v>238268.3524479764</v>
+        <v>465.0049218406914</v>
       </c>
       <c r="P20" t="n">
-        <v>-231922.3702669464</v>
+        <v>5880.977259189282</v>
       </c>
       <c r="Q20" t="n">
-        <v>-1792014.430098957</v>
+        <v>-4104.750296498532</v>
       </c>
       <c r="R20" t="n">
-        <v>-1.193279535891682e-05</v>
+        <v>-2.338506541870029e-15</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
@@ -1826,37 +1828,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H21" t="n">
-        <v>0.004466528688089516</v>
+        <v>0.02193264344044758</v>
       </c>
       <c r="I21" t="n">
-        <v>0.008883612918566541</v>
+        <v>0.001809404134121451</v>
       </c>
       <c r="J21" t="n">
-        <v>6.008883612918567</v>
+        <v>6.001809404134121</v>
       </c>
       <c r="K21" t="n">
-        <v>-5148.418271412277</v>
+        <v>-1048.62395399377</v>
       </c>
       <c r="L21" t="n">
-        <v>77.22627407118415</v>
+        <v>15.72935930990655</v>
       </c>
       <c r="M21" t="n">
-        <v>235796.4473723101</v>
+        <v>44159.28947446201</v>
       </c>
       <c r="N21" t="n">
-        <v>2357.964473723101</v>
+        <v>441.5928947446201</v>
       </c>
       <c r="O21" t="n">
-        <v>238231.6381201044</v>
+        <v>457.3222540545267</v>
       </c>
       <c r="P21" t="n">
-        <v>-231885.6559390744</v>
+        <v>5888.659926975446</v>
       </c>
       <c r="Q21" t="n">
-        <v>-1791768.073970428</v>
+        <v>-4052.424687289378</v>
       </c>
       <c r="R21" t="n">
-        <v>-1.193115490490162e-05</v>
+        <v>-2.308696256078145e-15</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
@@ -1872,7 +1874,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1892,37 +1894,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H22" t="n">
-        <v>0.002789215465947055</v>
+        <v>0.01354607732973528</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01422418026999139</v>
+        <v>0.00292956021860391</v>
       </c>
       <c r="J22" t="n">
-        <v>6.014224180269991</v>
+        <v>6.002929560218604</v>
       </c>
       <c r="K22" t="n">
-        <v>-8243.496229417584</v>
+        <v>-1697.800376372917</v>
       </c>
       <c r="L22" t="n">
-        <v>123.6524434412638</v>
+        <v>25.46700564559375</v>
       </c>
       <c r="M22" t="n">
-        <v>216946.8914507713</v>
+        <v>40389.37829015426</v>
       </c>
       <c r="N22" t="n">
-        <v>2169.468914507713</v>
+        <v>403.8937829015426</v>
       </c>
       <c r="O22" t="n">
-        <v>219240.0128087203</v>
+        <v>429.3607885471363</v>
       </c>
       <c r="P22" t="n">
-        <v>-212894.0306276903</v>
+        <v>5916.621392482836</v>
       </c>
       <c r="Q22" t="n">
-        <v>-1645483.166311306</v>
+        <v>-92.07175048394129</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.095706237647374e-05</v>
+        <v>-5.245395585007632e-17</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
@@ -1938,7 +1940,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1958,37 +1960,37 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H23" t="n">
-        <v>0.003826525404307462</v>
+        <v>0.01873262702153731</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01036910146302716</v>
+        <v>0.002118482848231906</v>
       </c>
       <c r="J23" t="n">
-        <v>6.010369101463027</v>
+        <v>6.002118482848232</v>
       </c>
       <c r="K23" t="n">
-        <v>-6009.31984764521</v>
+        <v>-1227.74775347208</v>
       </c>
       <c r="L23" t="n">
-        <v>90.13979771467815</v>
+        <v>18.4162163020812</v>
       </c>
       <c r="M23" t="n">
-        <v>216946.8914507713</v>
+        <v>40389.37829015426</v>
       </c>
       <c r="N23" t="n">
-        <v>2169.468914507713</v>
+        <v>403.8937829015426</v>
       </c>
       <c r="O23" t="n">
-        <v>219206.5001629937</v>
+        <v>422.3099992036238</v>
       </c>
       <c r="P23" t="n">
-        <v>-212860.5179819637</v>
+        <v>5923.672181826349</v>
       </c>
       <c r="Q23" t="n">
-        <v>-1645258.293730586</v>
+        <v>-44.04977972151391</v>
       </c>
       <c r="R23" t="n">
-        <v>-1.095556497866126e-05</v>
+        <v>-2.509548464727929e-17</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
@@ -2024,42 +2026,44 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002544041431678053</v>
+        <v>0.01232020715839027</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01559452632398006</v>
+        <v>0.003221033321381128</v>
       </c>
       <c r="J24" t="n">
-        <v>6.01559452632398</v>
+        <v>6.003221033321381</v>
       </c>
       <c r="K24" t="n">
-        <v>-9037.668006945343</v>
+        <v>-1866.721001528129</v>
       </c>
       <c r="L24" t="n">
-        <v>135.5650201041801</v>
+        <v>28.00081502292194</v>
       </c>
       <c r="M24" t="n">
-        <v>202809.7245096173</v>
+        <v>37561.94490192345</v>
       </c>
       <c r="N24" t="n">
-        <v>2028.097245096173</v>
+        <v>375.6194490192345</v>
       </c>
       <c r="O24" t="n">
-        <v>204973.3867748176</v>
+        <v>403.6202640421564</v>
       </c>
       <c r="P24" t="n">
-        <v>-198627.4045937876</v>
+        <v>5942.361916987817</v>
       </c>
       <c r="Q24" t="n">
-        <v>-1535615.777394408</v>
+        <v>2910.676862038039</v>
       </c>
       <c r="R24" t="n">
-        <v>-1.022546945705094e-05</v>
-      </c>
-      <c r="S24" t="inlineStr"/>
+        <v>1.658234092571218e-15</v>
+      </c>
+      <c r="S24" t="n">
+        <v>13</v>
+      </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -2090,42 +2094,44 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H25" t="n">
-        <v>0.003163822688168645</v>
+        <v>0.01541911344084322</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01254044882853123</v>
+        <v>0.002573711934644507</v>
       </c>
       <c r="J25" t="n">
-        <v>6.012540448828531</v>
+        <v>6.002573711934645</v>
       </c>
       <c r="K25" t="n">
-        <v>-7267.7047584322</v>
+        <v>-1491.571691736937</v>
       </c>
       <c r="L25" t="n">
-        <v>109.015571376483</v>
+        <v>22.37357537605406</v>
       </c>
       <c r="M25" t="n">
-        <v>202809.7245096173</v>
+        <v>37561.94490192345</v>
       </c>
       <c r="N25" t="n">
-        <v>2028.097245096173</v>
+        <v>375.6194490192345</v>
       </c>
       <c r="O25" t="n">
-        <v>204946.8373260899</v>
+        <v>397.9930243952886</v>
       </c>
       <c r="P25" t="n">
-        <v>-198600.8551450599</v>
+        <v>5947.989156634684</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1535437.628432348</v>
+        <v>2949.003228722606</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.022428318585136e-05</v>
-      </c>
-      <c r="S25" t="inlineStr"/>
+        <v>1.680068906565731e-15</v>
+      </c>
+      <c r="S25" t="n">
+        <v>13</v>
+      </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -2150,42 +2156,44 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H26" t="n">
-        <v>0.002291037680732481</v>
+        <v>0.01105518840366241</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01731601179687914</v>
+        <v>0.003589579693652922</v>
       </c>
       <c r="J26" t="n">
-        <v>6.017316011796879</v>
+        <v>6.003589579693653</v>
       </c>
       <c r="K26" t="n">
-        <v>-10035.33948858893</v>
+        <v>-2080.308749495637</v>
       </c>
       <c r="L26" t="n">
-        <v>150.5300923288339</v>
+        <v>31.20463124243455</v>
       </c>
       <c r="M26" t="n">
-        <v>188672.5575684631</v>
+        <v>34734.51151369263</v>
       </c>
       <c r="N26" t="n">
-        <v>1886.725575684632</v>
+        <v>347.3451151369263</v>
       </c>
       <c r="O26" t="n">
-        <v>190709.8132364766</v>
+        <v>378.5497463793609</v>
       </c>
       <c r="P26" t="n">
-        <v>-184363.8310554466</v>
+        <v>5967.432434650612</v>
       </c>
       <c r="Q26" t="n">
-        <v>-1425768.870971198</v>
+        <v>5908.862148750894</v>
       </c>
       <c r="R26" t="n">
-        <v>-9.494012927939253e-06</v>
-      </c>
-      <c r="S26" t="inlineStr"/>
+        <v>3.366322380596264e-15</v>
+      </c>
+      <c r="S26" t="n">
+        <v>11</v>
+      </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -2210,42 +2218,44 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H27" t="n">
-        <v>0.002029686677913614</v>
+        <v>0.00974843338956807</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0195447467727945</v>
+        <v>0.004070711990038944</v>
       </c>
       <c r="J27" t="n">
-        <v>6.019544746772794</v>
+        <v>6.004070711990039</v>
       </c>
       <c r="K27" t="n">
-        <v>-11326.9828748198</v>
+        <v>-2359.14466098414</v>
       </c>
       <c r="L27" t="n">
-        <v>169.904743122297</v>
+        <v>35.38716991476209</v>
       </c>
       <c r="M27" t="n">
-        <v>179247.7796076938</v>
+        <v>32849.55592153876</v>
       </c>
       <c r="N27" t="n">
-        <v>1792.477796076938</v>
+        <v>328.4955592153876</v>
       </c>
       <c r="O27" t="n">
-        <v>181210.162146893</v>
+        <v>363.8827291301497</v>
       </c>
       <c r="P27" t="n">
-        <v>-174864.179965863</v>
+        <v>5982.099451899823</v>
       </c>
       <c r="Q27" t="n">
-        <v>-1352600.66093778</v>
+        <v>7893.712807853786</v>
       </c>
       <c r="R27" t="n">
-        <v>-9.006795156451325e-06</v>
-      </c>
-      <c r="S27" t="inlineStr"/>
+        <v>4.497106451653292e-15</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -2270,42 +2280,44 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H28" t="n">
-        <v>0.002476749634511782</v>
+        <v>0.01198374817255891</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01601807264796662</v>
+        <v>0.003311461421844797</v>
       </c>
       <c r="J28" t="n">
-        <v>6.016018072647967</v>
+        <v>6.003311461421845</v>
       </c>
       <c r="K28" t="n">
-        <v>-9283.13048413953</v>
+        <v>-1919.127796945708</v>
       </c>
       <c r="L28" t="n">
-        <v>139.2469572620929</v>
+        <v>28.78691695418562</v>
       </c>
       <c r="M28" t="n">
-        <v>167466.8071567321</v>
+        <v>30493.36143134641</v>
       </c>
       <c r="N28" t="n">
-        <v>1674.668071567321</v>
+        <v>304.9336143134641</v>
       </c>
       <c r="O28" t="n">
-        <v>169280.7221855615</v>
+        <v>333.7205312676498</v>
       </c>
       <c r="P28" t="n">
-        <v>-162934.7400045315</v>
+        <v>6012.261649762323</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1260772.175302499</v>
+        <v>10455.33794039205</v>
       </c>
       <c r="R28" t="n">
-        <v>-8.395320991511408e-06</v>
-      </c>
-      <c r="S28" t="inlineStr"/>
+        <v>5.956483197510249e-15</v>
+      </c>
+      <c r="S28" t="n">
+        <v>9</v>
+      </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -2330,42 +2342,44 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001759417767295217</v>
+        <v>0.008397088836476083</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02254559610986462</v>
+        <v>0.004725744872871473</v>
       </c>
       <c r="J29" t="n">
-        <v>6.022545596109865</v>
+        <v>6.004725744872871</v>
       </c>
       <c r="K29" t="n">
-        <v>-13066.09822106279</v>
+        <v>-2738.763099270196</v>
       </c>
       <c r="L29" t="n">
-        <v>195.9914733159418</v>
+        <v>41.08144648905293</v>
       </c>
       <c r="M29" t="n">
-        <v>165110.6126665397</v>
+        <v>30022.12253330794</v>
       </c>
       <c r="N29" t="n">
-        <v>1651.106126665397</v>
+        <v>300.2212253330794</v>
       </c>
       <c r="O29" t="n">
-        <v>166957.7102665211</v>
+        <v>341.3026718221324</v>
       </c>
       <c r="P29" t="n">
-        <v>-160611.7280854911</v>
+        <v>6004.67950920784</v>
       </c>
       <c r="Q29" t="n">
-        <v>-1242828.381744834</v>
+        <v>10874.93590657386</v>
       </c>
       <c r="R29" t="n">
-        <v>-8.275835560540609e-06</v>
-      </c>
-      <c r="S29" t="inlineStr"/>
+        <v>6.195531255977666e-15</v>
+      </c>
+      <c r="S29" t="n">
+        <v>9</v>
+      </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -2390,42 +2404,44 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H30" t="n">
-        <v>0.001479599639592083</v>
+        <v>0.006997998197960414</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02680687637797519</v>
+        <v>0.005670433644070272</v>
       </c>
       <c r="J30" t="n">
-        <v>6.026806876377975</v>
+        <v>6.00567043364407</v>
       </c>
       <c r="K30" t="n">
-        <v>-15535.6850201558</v>
+        <v>-3286.249012376539</v>
       </c>
       <c r="L30" t="n">
-        <v>233.035275302337</v>
+        <v>49.29373518564807</v>
       </c>
       <c r="M30" t="n">
-        <v>150973.4457253857</v>
+        <v>27194.68914507713</v>
       </c>
       <c r="N30" t="n">
-        <v>1509.734457253857</v>
+        <v>271.9468914507713</v>
       </c>
       <c r="O30" t="n">
-        <v>152716.2154579418</v>
+        <v>321.2406266364194</v>
       </c>
       <c r="P30" t="n">
-        <v>-146370.2332769119</v>
+        <v>6024.741554393553</v>
       </c>
       <c r="Q30" t="n">
-        <v>-1133129.625395512</v>
+        <v>13839.00916594608</v>
       </c>
       <c r="R30" t="n">
-        <v>-7.545365543861192e-06</v>
-      </c>
-      <c r="S30" t="inlineStr"/>
+        <v>7.884185670239289e-15</v>
+      </c>
+      <c r="S30" t="n">
+        <v>7</v>
+      </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -2450,42 +2466,44 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H31" t="n">
-        <v>0.001763443692629162</v>
+        <v>0.008417218463145807</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02249414990427567</v>
+        <v>0.004714444497324166</v>
       </c>
       <c r="J31" t="n">
-        <v>6.022494149904276</v>
+        <v>6.004714444497324</v>
       </c>
       <c r="K31" t="n">
-        <v>-13036.28303356341</v>
+        <v>-2732.214067854994</v>
       </c>
       <c r="L31" t="n">
-        <v>195.5442455034512</v>
+        <v>40.98321101782491</v>
       </c>
       <c r="M31" t="n">
-        <v>143904.8622548086</v>
+        <v>25780.97245096172</v>
       </c>
       <c r="N31" t="n">
-        <v>1439.048622548086</v>
+        <v>257.8097245096172</v>
       </c>
       <c r="O31" t="n">
-        <v>145539.4551228602</v>
+        <v>298.7929355274422</v>
       </c>
       <c r="P31" t="n">
-        <v>-139193.4729418302</v>
+        <v>6047.189245502531</v>
       </c>
       <c r="Q31" t="n">
-        <v>-1077904.395895842</v>
+        <v>15405.61404230612</v>
       </c>
       <c r="R31" t="n">
-        <v>-7.17762778952158e-06</v>
-      </c>
-      <c r="S31" t="inlineStr"/>
+        <v>8.7766920317148e-15</v>
+      </c>
+      <c r="S31" t="n">
+        <v>7</v>
+      </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -2510,42 +2528,44 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001189531414543225</v>
+        <v>0.005547657072716127</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03333901574166021</v>
+        <v>0.007152642098503748</v>
       </c>
       <c r="J32" t="n">
-        <v>6.03333901574166</v>
+        <v>6.007152642098504</v>
       </c>
       <c r="K32" t="n">
-        <v>-19321.32786160636</v>
+        <v>-4145.24964180913</v>
       </c>
       <c r="L32" t="n">
-        <v>289.8199179240954</v>
+        <v>62.17874462713694</v>
       </c>
       <c r="M32" t="n">
-        <v>132123.8898038469</v>
+        <v>23424.77796076938</v>
       </c>
       <c r="N32" t="n">
-        <v>1321.238898038469</v>
+        <v>234.2477796076938</v>
       </c>
       <c r="O32" t="n">
-        <v>133734.9486198094</v>
+        <v>296.4265242348308</v>
       </c>
       <c r="P32" t="n">
-        <v>-127388.9664387795</v>
+        <v>6049.555656795142</v>
       </c>
       <c r="Q32" t="n">
-        <v>-986914.2239350765</v>
+        <v>17777.92583913877</v>
       </c>
       <c r="R32" t="n">
-        <v>-6.571735848338654e-06</v>
-      </c>
-      <c r="S32" t="inlineStr"/>
+        <v>1.012821557286197e-14</v>
+      </c>
+      <c r="S32" t="n">
+        <v>6</v>
+      </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -2570,42 +2590,44 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0008884320209194877</v>
+        <v>0.004042160104597438</v>
       </c>
       <c r="I33" t="n">
-        <v>0.04462700733239444</v>
+        <v>0.009816065258178241</v>
       </c>
       <c r="J33" t="n">
-        <v>6.044627007332394</v>
+        <v>6.009816065258178</v>
       </c>
       <c r="K33" t="n">
-        <v>-25863.18224967963</v>
+        <v>-5688.812670243178</v>
       </c>
       <c r="L33" t="n">
-        <v>387.9477337451945</v>
+        <v>85.33219005364768</v>
       </c>
       <c r="M33" t="n">
-        <v>113274.3338823081</v>
+        <v>19654.86677646163</v>
       </c>
       <c r="N33" t="n">
-        <v>1132.743338823081</v>
+        <v>196.5486677646163</v>
       </c>
       <c r="O33" t="n">
-        <v>114795.0249548764</v>
+        <v>281.880857818264</v>
       </c>
       <c r="P33" t="n">
-        <v>-108449.0427738464</v>
+        <v>6064.101323211708</v>
       </c>
       <c r="Q33" t="n">
-        <v>-840976.2385321</v>
+        <v>21646.90558631873</v>
       </c>
       <c r="R33" t="n">
-        <v>-5.599953430933598e-06</v>
-      </c>
-      <c r="S33" t="inlineStr"/>
+        <v>1.233240189251725e-14</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -2630,42 +2652,44 @@
         <v>24.54629766251747</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0005754274685068507</v>
+        <v>0.002477137342534254</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0688655571742629</v>
+        <v>0.01601556645971414</v>
       </c>
       <c r="J34" t="n">
-        <v>6.068865557174263</v>
+        <v>6.016015566459714</v>
       </c>
       <c r="K34" t="n">
-        <v>-39910.41663754368</v>
+        <v>-9281.678045183877</v>
       </c>
       <c r="L34" t="n">
-        <v>598.6562495631551</v>
+        <v>139.2251706777581</v>
       </c>
       <c r="M34" t="n">
-        <v>99137.16694115406</v>
+        <v>16827.43338823081</v>
       </c>
       <c r="N34" t="n">
-        <v>991.3716694115407</v>
+        <v>168.2743338823081</v>
       </c>
       <c r="O34" t="n">
-        <v>100727.1948601288</v>
+        <v>307.4995045600663</v>
       </c>
       <c r="P34" t="n">
-        <v>-94381.21267909878</v>
+        <v>6038.482676469906</v>
       </c>
       <c r="Q34" t="n">
-        <v>-732442.7865487111</v>
+        <v>24299.85384318765</v>
       </c>
       <c r="R34" t="n">
-        <v>-4.877243027288529e-06</v>
-      </c>
-      <c r="S34" t="inlineStr"/>
+        <v>1.3843806096379e-14</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>

--- a/resultado_a.xlsx
+++ b/resultado_a.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Resistência Térmica</t>
+          <t>Resistência Térmica [°C/W]</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Fluxo de Calor 
+          <t>Taxa de Transferência de Calor 
  [W/m]</t>
         </is>
       </c>
@@ -508,19 +508,19 @@
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Custo de Investimento 
- [$/m]</t>
+ [$]</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Custo de Manutenção 
- [$/m]</t>
+ [$]</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Custo Total 
- [$/m]</t>
+ [$]</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -570,11 +570,11 @@
         <v>1.5</v>
       </c>
       <c r="F2" t="n">
-        <v>304.8</v>
+        <v>300</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>7.938366648301282e-05</v>
+        <v>7.144529983471149e-05</v>
       </c>
       <c r="I2" t="n">
         <v>0.5</v>
@@ -586,7 +586,7 @@
         <v>289732.1454019982</v>
       </c>
       <c r="L2" t="n">
-        <v>4345.982181029973</v>
+        <v>90857.63766973712</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>2000</v>
       </c>
       <c r="O2" t="n">
-        <v>6345.982181029973</v>
+        <v>92857.63766973712</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>297.6962976625175</v>
+        <v>294.6406923717357</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -635,43 +635,43 @@
         <v>312.7</v>
       </c>
       <c r="G3" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004709100906332256</v>
+        <v>0.0050090064611963</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008426089719137053</v>
+        <v>0.007129511220625773</v>
       </c>
       <c r="J3" t="n">
-        <v>6.008426089719137</v>
+        <v>6.007129511220626</v>
       </c>
       <c r="K3" t="n">
-        <v>-4883.26480049045</v>
+        <v>-4131.844348785256</v>
       </c>
       <c r="L3" t="n">
-        <v>73.24897200735676</v>
+        <v>1295.712687416191</v>
       </c>
       <c r="M3" t="n">
-        <v>23424.77796076938</v>
+        <v>32849.55592153876</v>
       </c>
       <c r="N3" t="n">
-        <v>234.2477796076938</v>
+        <v>656.9911184307753</v>
       </c>
       <c r="O3" t="n">
-        <v>307.4967516150506</v>
+        <v>1952.703805846966</v>
       </c>
       <c r="P3" t="n">
-        <v>6038.485429414922</v>
+        <v>90904.93386389015</v>
       </c>
       <c r="Q3" t="n">
-        <v>17702.52802058454</v>
+        <v>859668.4848185634</v>
       </c>
       <c r="R3" t="n">
-        <v>1.008526087910577e-14</v>
+        <v>87559.13403442179</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.254</v>
+        <v>0.2794</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -694,54 +694,56 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>503.2</v>
+        <v>325.4</v>
       </c>
       <c r="G4" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04904755267856965</v>
+        <v>0.008709939702633977</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0008091306609685489</v>
+        <v>0.004100416602341284</v>
       </c>
       <c r="J4" t="n">
-        <v>6.000809130660969</v>
+        <v>6.004100416602341</v>
       </c>
       <c r="K4" t="n">
-        <v>-468.9244248947708</v>
+        <v>-2376.359702897239</v>
       </c>
       <c r="L4" t="n">
-        <v>7.033866373421562</v>
+        <v>745.207020640494</v>
       </c>
       <c r="M4" t="n">
-        <v>76203.5345410779</v>
+        <v>37561.94490192345</v>
       </c>
       <c r="N4" t="n">
-        <v>762.035345410779</v>
+        <v>751.238898038469</v>
       </c>
       <c r="O4" t="n">
-        <v>769.0692117842005</v>
+        <v>1496.445918678963</v>
       </c>
       <c r="P4" t="n">
-        <v>5576.912969245772</v>
+        <v>91361.19175105816</v>
       </c>
       <c r="Q4" t="n">
-        <v>-38219.93603800505</v>
+        <v>859435.7030302051</v>
       </c>
       <c r="R4" t="n">
-        <v>-2.177417966958197e-14</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
+        <v>87535.42469510369</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -760,54 +762,56 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="F5" t="n">
-        <v>490.5</v>
+        <v>338.1</v>
       </c>
       <c r="G5" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04666381677492144</v>
+        <v>0.01226969857092229</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0008504628596597286</v>
+        <v>0.002910862683620508</v>
       </c>
       <c r="J5" t="n">
-        <v>6.00085046285966</v>
+        <v>6.002910862683621</v>
       </c>
       <c r="K5" t="n">
-        <v>-492.8781303270973</v>
+        <v>-1686.964387503094</v>
       </c>
       <c r="L5" t="n">
-        <v>7.393171954906459</v>
+        <v>529.0182726146651</v>
       </c>
       <c r="M5" t="n">
-        <v>73376.10115284708</v>
+        <v>46986.72286269283</v>
       </c>
       <c r="N5" t="n">
-        <v>733.7610115284708</v>
+        <v>939.7344572538566</v>
       </c>
       <c r="O5" t="n">
-        <v>741.1541834833773</v>
+        <v>1468.752729868522</v>
       </c>
       <c r="P5" t="n">
-        <v>5604.827997546596</v>
+        <v>91388.8849398686</v>
       </c>
       <c r="Q5" t="n">
-        <v>-35202.37717479774</v>
+        <v>850282.8208793591</v>
       </c>
       <c r="R5" t="n">
-        <v>-2.005505411202792e-14</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
+        <v>86603.18343094204</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -818,7 +822,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>302.15</v>
+        <v>299.85</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -826,54 +830,56 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>477.8</v>
+        <v>350.8</v>
       </c>
       <c r="G6" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04421769505415066</v>
+        <v>0.01569866869745676</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000897509524634188</v>
+        <v>0.002275094591198012</v>
       </c>
       <c r="J6" t="n">
-        <v>6.000897509524634</v>
+        <v>6.002275094591198</v>
       </c>
       <c r="K6" t="n">
-        <v>-520.1436034642104</v>
+        <v>-1318.510685890956</v>
       </c>
       <c r="L6" t="n">
-        <v>7.802154051963156</v>
+        <v>413.4741969902621</v>
       </c>
       <c r="M6" t="n">
-        <v>70548.66776461629</v>
+        <v>61123.88980384689</v>
       </c>
       <c r="N6" t="n">
-        <v>705.4866776461629</v>
+        <v>1222.477796076938</v>
       </c>
       <c r="O6" t="n">
-        <v>713.288831698126</v>
+        <v>1635.9519930672</v>
       </c>
       <c r="P6" t="n">
-        <v>5632.693349331847</v>
+        <v>91221.68567666992</v>
       </c>
       <c r="Q6" t="n">
-        <v>-32185.15665160633</v>
+        <v>834504.0669257033</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.833612130927828e-14</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
+        <v>84996.08248828517</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -884,7 +890,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24747841.20311886</v>
+        <v>20846372.19049841</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -892,54 +898,56 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="E7" t="n">
-        <v>3.25</v>
+        <v>1.25</v>
       </c>
       <c r="F7" t="n">
-        <v>465.1</v>
+        <v>363.5</v>
       </c>
       <c r="G7" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04170583189643978</v>
+        <v>0.01900612971643238</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000951563702869862</v>
+        <v>0.001879198887195344</v>
       </c>
       <c r="J7" t="n">
-        <v>6.00095156370287</v>
+        <v>6.001879198887195</v>
       </c>
       <c r="K7" t="n">
-        <v>-551.4702181689936</v>
+        <v>-1089.072877811508</v>
       </c>
       <c r="L7" t="n">
-        <v>8.272053272534905</v>
+        <v>341.52437172908</v>
       </c>
       <c r="M7" t="n">
         <v>66778.75658030852</v>
       </c>
       <c r="N7" t="n">
-        <v>667.7875658030852</v>
+        <v>1335.57513160617</v>
       </c>
       <c r="O7" t="n">
-        <v>676.05961907562</v>
+        <v>1677.09950333525</v>
       </c>
       <c r="P7" t="n">
-        <v>5669.922561954352</v>
+        <v>91180.53816640186</v>
       </c>
       <c r="Q7" t="n">
-        <v>-28161.6823450772</v>
+        <v>828445.2078279805</v>
       </c>
       <c r="R7" t="n">
-        <v>-1.60439182988076e-14</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
+        <v>84378.97430623387</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -950,7 +958,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -958,54 +966,56 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F8" t="n">
-        <v>452.4</v>
+        <v>376.2</v>
       </c>
       <c r="G8" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0391245933448883</v>
+        <v>0.02220040697730834</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00101434157585345</v>
+        <v>0.001608823258209213</v>
       </c>
       <c r="J8" t="n">
-        <v>6.001014341575853</v>
+        <v>6.001608823258209</v>
       </c>
       <c r="K8" t="n">
-        <v>-587.85257198051</v>
+        <v>-932.3791045407247</v>
       </c>
       <c r="L8" t="n">
-        <v>8.817788579707649</v>
+        <v>292.386482465231</v>
       </c>
       <c r="M8" t="n">
-        <v>63480.08429403924</v>
+        <v>74318.57894892403</v>
       </c>
       <c r="N8" t="n">
-        <v>634.8008429403924</v>
+        <v>1486.371578978481</v>
       </c>
       <c r="O8" t="n">
-        <v>643.6186315201001</v>
+        <v>1778.758061443712</v>
       </c>
       <c r="P8" t="n">
-        <v>5702.363549509872</v>
+        <v>91078.8796082934</v>
       </c>
       <c r="Q8" t="n">
-        <v>-24642.05888866285</v>
+        <v>819907.2867506272</v>
       </c>
       <c r="R8" t="n">
-        <v>-1.403876283666776e-14</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
+        <v>83509.36818574769</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1016,62 +1026,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Espuma Elastomérica</t>
+          <t>Aerogel</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="F9" t="n">
-        <v>503.2</v>
+        <v>388.9</v>
       </c>
       <c r="G9" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02120545431879943</v>
+        <v>0.02528899809964107</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001871450693045063</v>
+        <v>0.001412341464288147</v>
       </c>
       <c r="J9" t="n">
-        <v>6.001871450693045</v>
+        <v>6.001412341464288</v>
       </c>
       <c r="K9" t="n">
-        <v>-1084.582481290234</v>
+        <v>-818.5098413023884</v>
       </c>
       <c r="L9" t="n">
-        <v>16.2687372193535</v>
+        <v>256.6780102600708</v>
       </c>
       <c r="M9" t="n">
-        <v>61123.88980384689</v>
+        <v>81858.40131753954</v>
       </c>
       <c r="N9" t="n">
-        <v>611.238898038469</v>
+        <v>1637.168026350791</v>
       </c>
       <c r="O9" t="n">
-        <v>627.5076352578225</v>
+        <v>1893.846036610862</v>
       </c>
       <c r="P9" t="n">
-        <v>5718.47454577215</v>
+        <v>90963.79163312625</v>
       </c>
       <c r="Q9" t="n">
-        <v>-22176.13458613786</v>
+        <v>811237.513676996</v>
       </c>
       <c r="R9" t="n">
-        <v>-1.263390756005568e-14</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
+        <v>82626.33264820288</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1090,54 +1102,56 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>439.7</v>
+        <v>401.6</v>
       </c>
       <c r="G10" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03647003543820614</v>
+        <v>0.02827867921669966</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001088171083324596</v>
+        <v>0.001263030325901582</v>
       </c>
       <c r="J10" t="n">
-        <v>6.001088171083325</v>
+        <v>6.001263030325902</v>
       </c>
       <c r="K10" t="n">
-        <v>-630.6398015195402</v>
+        <v>-731.9779088624897</v>
       </c>
       <c r="L10" t="n">
-        <v>9.459597022793103</v>
+        <v>229.5423020231474</v>
       </c>
       <c r="M10" t="n">
-        <v>61123.88980384689</v>
+        <v>89398.22368615503</v>
       </c>
       <c r="N10" t="n">
-        <v>611.238898038469</v>
+        <v>1787.964473723101</v>
       </c>
       <c r="O10" t="n">
-        <v>620.6984950612621</v>
+        <v>2017.506775746248</v>
       </c>
       <c r="P10" t="n">
-        <v>5725.28368596871</v>
+        <v>90840.13089399086</v>
       </c>
       <c r="Q10" t="n">
-        <v>-22129.75845496931</v>
+        <v>802483.571943035</v>
       </c>
       <c r="R10" t="n">
-        <v>-1.260748673581777e-14</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
+        <v>81734.72434668979</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1152,58 +1166,60 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Espuma Elastomérica</t>
+          <t>Aerogel</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E11" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="F11" t="n">
-        <v>490.5</v>
+        <v>414.3</v>
       </c>
       <c r="G11" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02019779032495076</v>
+        <v>0.03117559469875349</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001964813031122503</v>
+        <v>0.001145669586321674</v>
       </c>
       <c r="J11" t="n">
-        <v>6.001964813031123</v>
+        <v>6.001145669586322</v>
       </c>
       <c r="K11" t="n">
-        <v>-1138.689787817303</v>
+        <v>-663.9625437762659</v>
       </c>
       <c r="L11" t="n">
-        <v>17.08034681725955</v>
+        <v>208.2132382825509</v>
       </c>
       <c r="M11" t="n">
-        <v>58767.69531365455</v>
+        <v>95053.09046261666</v>
       </c>
       <c r="N11" t="n">
-        <v>587.6769531365455</v>
+        <v>1901.061809252333</v>
       </c>
       <c r="O11" t="n">
-        <v>604.757299953805</v>
+        <v>2109.275047534884</v>
       </c>
       <c r="P11" t="n">
-        <v>5741.224881076168</v>
+        <v>90748.36262220223</v>
       </c>
       <c r="Q11" t="n">
-        <v>-19664.99064509996</v>
+        <v>795927.7107468258</v>
       </c>
       <c r="R11" t="n">
-        <v>-1.12032903216079e-14</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
+        <v>81066.99540311789</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1231,45 +1247,47 @@
         <v>427</v>
       </c>
       <c r="G12" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03373786790688158</v>
+        <v>0.03398533334623596</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001176291342801505</v>
+        <v>0.001050953716912773</v>
       </c>
       <c r="J12" t="n">
-        <v>6.001176291342802</v>
+        <v>6.001050953716913</v>
       </c>
       <c r="K12" t="n">
-        <v>-681.7091083761638</v>
+        <v>-609.0708102765211</v>
       </c>
       <c r="L12" t="n">
-        <v>10.22563662564246</v>
+        <v>190.9996383678305</v>
       </c>
       <c r="M12" t="n">
-        <v>57353.97861953914</v>
+        <v>100707.9572390783</v>
       </c>
       <c r="N12" t="n">
-        <v>573.5397861953915</v>
+        <v>2014.159144781566</v>
       </c>
       <c r="O12" t="n">
-        <v>583.7654228210339</v>
+        <v>2205.158783149396</v>
       </c>
       <c r="P12" t="n">
-        <v>5762.216758208939</v>
+        <v>90652.47888658772</v>
       </c>
       <c r="Q12" t="n">
-        <v>-18108.30112045373</v>
+        <v>789331.4433201241</v>
       </c>
       <c r="R12" t="n">
-        <v>-1.031643280919087e-14</v>
-      </c>
-      <c r="S12" t="inlineStr"/>
+        <v>80395.15099572013</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1284,58 +1302,60 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Espuma Elastomérica</t>
+          <t>Aerogel</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E13" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="F13" t="n">
-        <v>477.8</v>
+        <v>439.7</v>
       </c>
       <c r="G13" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0191638410863862</v>
+        <v>0.03671299342994299</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002070816074592585</v>
+        <v>0.0009728729920652768</v>
       </c>
       <c r="J13" t="n">
-        <v>6.002070816074593</v>
+        <v>6.000972872992065</v>
       </c>
       <c r="K13" t="n">
-        <v>-1200.122901915088</v>
+        <v>-563.8198257849403</v>
       </c>
       <c r="L13" t="n">
-        <v>18.00184352872632</v>
+        <v>176.8092987096941</v>
       </c>
       <c r="M13" t="n">
-        <v>55469.02302738527</v>
+        <v>108247.7796076938</v>
       </c>
       <c r="N13" t="n">
-        <v>554.6902302738528</v>
+        <v>2164.955592153876</v>
       </c>
       <c r="O13" t="n">
-        <v>572.6920738025791</v>
+        <v>2341.76489086357</v>
       </c>
       <c r="P13" t="n">
-        <v>5773.290107227393</v>
+        <v>90515.87277887354</v>
       </c>
       <c r="Q13" t="n">
-        <v>-16147.92644869063</v>
+        <v>780450.4020492131</v>
       </c>
       <c r="R13" t="n">
-        <v>-9.199592888783316e-15</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
+        <v>79490.59732562829</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1354,54 +1374,56 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="E14" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>414.3</v>
+        <v>452.4</v>
       </c>
       <c r="G14" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03092341239346469</v>
+        <v>0.03936323848195182</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001283347034132021</v>
+        <v>0.0009073729107171857</v>
       </c>
       <c r="J14" t="n">
-        <v>6.001283347034132</v>
+        <v>6.000907372910717</v>
       </c>
       <c r="K14" t="n">
-        <v>-743.7522750686485</v>
+        <v>-525.8598405143313</v>
       </c>
       <c r="L14" t="n">
-        <v>11.15628412602973</v>
+        <v>164.9053569400289</v>
       </c>
       <c r="M14" t="n">
-        <v>54526.54523130833</v>
+        <v>112960.1685880785</v>
       </c>
       <c r="N14" t="n">
-        <v>545.2654523130833</v>
+        <v>2259.20337176157</v>
       </c>
       <c r="O14" t="n">
-        <v>556.421736439113</v>
+        <v>2424.108728701598</v>
       </c>
       <c r="P14" t="n">
-        <v>5789.560444590859</v>
+        <v>90433.52894103552</v>
       </c>
       <c r="Q14" t="n">
-        <v>-15094.63358963324</v>
+        <v>774929.5491308392</v>
       </c>
       <c r="R14" t="n">
-        <v>-8.599524172420271e-15</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
+        <v>78928.28626130417</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1438,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Espuma Elastomérica</t>
+          <t>Aerogel</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1429,45 +1451,47 @@
         <v>465.1</v>
       </c>
       <c r="G15" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01810219629377495</v>
+        <v>0.04194034537228175</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002192258041588957</v>
+        <v>0.0008516187471059311</v>
       </c>
       <c r="J15" t="n">
-        <v>6.002192258041589</v>
+        <v>6.000851618747106</v>
       </c>
       <c r="K15" t="n">
-        <v>-1270.503505780748</v>
+        <v>-493.5480145416316</v>
       </c>
       <c r="L15" t="n">
-        <v>19.05755258671122</v>
+        <v>154.7726318583787</v>
       </c>
       <c r="M15" t="n">
-        <v>53112.82853719292</v>
+        <v>119557.513160617</v>
       </c>
       <c r="N15" t="n">
-        <v>531.1282853719292</v>
+        <v>2391.150263212341</v>
       </c>
       <c r="O15" t="n">
-        <v>550.1858379586405</v>
+        <v>2545.92289507072</v>
       </c>
       <c r="P15" t="n">
-        <v>5795.796343071333</v>
+        <v>90311.7147746664</v>
       </c>
       <c r="Q15" t="n">
-        <v>-13638.44503599728</v>
+        <v>767136.215116573</v>
       </c>
       <c r="R15" t="n">
-        <v>-7.769922805004871e-15</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
+        <v>78134.51797785457</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1486,54 +1510,56 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>477.8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>21.49069237173569</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.04444824591706161</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0008035688495056093</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.000803568849506</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-465.7011269156022</v>
+      </c>
+      <c r="L16" t="n">
+        <v>146.0400750250829</v>
+      </c>
+      <c r="M16" t="n">
+        <v>127097.3355292326</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2541.946710584651</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2687.986785609734</v>
+      </c>
+      <c r="P16" t="n">
+        <v>90169.65088412738</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>758201.58852937</v>
+      </c>
+      <c r="R16" t="n">
+        <v>77224.5065249379</v>
+      </c>
+      <c r="S16" t="n">
         <v>2</v>
       </c>
-      <c r="F16" t="n">
-        <v>401.6</v>
-      </c>
-      <c r="G16" t="n">
-        <v>24.54629766251747</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.02802155417478322</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.001416243891185331</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.001416243891185</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-820.7714578328129</v>
-      </c>
-      <c r="L16" t="n">
-        <v>12.31157186749219</v>
-      </c>
-      <c r="M16" t="n">
-        <v>51699.11184307752</v>
-      </c>
-      <c r="N16" t="n">
-        <v>516.9911184307751</v>
-      </c>
-      <c r="O16" t="n">
-        <v>529.3026902982673</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5816.679490731705</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-12082.49605305358</v>
-      </c>
-      <c r="R16" t="n">
-        <v>-6.883487184661858e-15</v>
-      </c>
-      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1544,62 +1570,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Espuma Elastomérica</t>
+          <t>Aerogel</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="F17" t="n">
-        <v>452.4</v>
+        <v>490.5</v>
       </c>
       <c r="G17" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01701132890185497</v>
+        <v>0.04689056303538101</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002332831511353106</v>
+        <v>0.0007617153566457091</v>
       </c>
       <c r="J17" t="n">
-        <v>6.002332831511353</v>
+        <v>6.000761715356646</v>
       </c>
       <c r="K17" t="n">
-        <v>-1351.971600644121</v>
+        <v>-441.4453101013445</v>
       </c>
       <c r="L17" t="n">
-        <v>20.27957400966182</v>
+        <v>138.433648708681</v>
       </c>
       <c r="M17" t="n">
-        <v>50756.63404700057</v>
+        <v>132752.2023056942</v>
       </c>
       <c r="N17" t="n">
-        <v>507.5663404700057</v>
+        <v>2655.044046113883</v>
       </c>
       <c r="O17" t="n">
-        <v>527.8459144796676</v>
+        <v>2793.477694822564</v>
       </c>
       <c r="P17" t="n">
-        <v>5818.136266550305</v>
+        <v>90064.15997491455</v>
       </c>
       <c r="Q17" t="n">
-        <v>-11130.09635428463</v>
+        <v>751510.9964561108</v>
       </c>
       <c r="R17" t="n">
-        <v>-6.340898046427042e-15</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
+        <v>76543.05494394178</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1638,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>400</v>
+        <v>2190</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1618,54 +1646,56 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="E18" t="n">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>388.9</v>
+        <v>503.2</v>
       </c>
       <c r="G18" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02502668613410556</v>
+        <v>0.04927064229013166</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001585715683347644</v>
+        <v>0.0007249203994206255</v>
       </c>
       <c r="J18" t="n">
-        <v>6.001585715683348</v>
+        <v>6.000724920399421</v>
       </c>
       <c r="K18" t="n">
-        <v>-918.9873165706621</v>
+        <v>-420.121122347576</v>
       </c>
       <c r="L18" t="n">
-        <v>13.78480974855993</v>
+        <v>131.7465573545437</v>
       </c>
       <c r="M18" t="n">
-        <v>47929.20065876977</v>
+        <v>138407.0690821558</v>
       </c>
       <c r="N18" t="n">
-        <v>479.2920065876977</v>
+        <v>2768.141381643116</v>
       </c>
       <c r="O18" t="n">
-        <v>493.0768163362577</v>
+        <v>2899.88793899766</v>
       </c>
       <c r="P18" t="n">
-        <v>5852.905364693715</v>
+        <v>89957.74973073945</v>
       </c>
       <c r="Q18" t="n">
-        <v>-8065.855350178143</v>
+        <v>744811.3782166754</v>
       </c>
       <c r="R18" t="n">
-        <v>-4.595177328632834e-15</v>
-      </c>
-      <c r="S18" t="inlineStr"/>
+        <v>75860.68402798341</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1706,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.12</v>
+        <v>0.7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1684,54 +1714,56 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>2.75</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>439.7</v>
+        <v>312.7</v>
       </c>
       <c r="G19" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0158895818725429</v>
+        <v>0.002777042897398297</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002497512039440153</v>
+        <v>0.01285785857533028</v>
       </c>
       <c r="J19" t="n">
-        <v>6.00249751203944</v>
+        <v>6.01285785857533</v>
       </c>
       <c r="K19" t="n">
-        <v>-1447.410725207304</v>
+        <v>-7451.65673325954</v>
       </c>
       <c r="L19" t="n">
-        <v>21.71116087810956</v>
+        <v>2336.778773961623</v>
       </c>
       <c r="M19" t="n">
-        <v>46986.72286269283</v>
+        <v>19654.86677646163</v>
       </c>
       <c r="N19" t="n">
-        <v>469.8672286269283</v>
+        <v>393.0973355292325</v>
       </c>
       <c r="O19" t="n">
-        <v>491.5783895050379</v>
+        <v>2729.876109490856</v>
       </c>
       <c r="P19" t="n">
-        <v>5854.403791524935</v>
+        <v>90127.76156024626</v>
       </c>
       <c r="Q19" t="n">
-        <v>-7113.171972006392</v>
+        <v>865232.7817254775</v>
       </c>
       <c r="R19" t="n">
-        <v>-4.052426576148353e-15</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
+        <v>88125.86996493881</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1774,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1750,54 +1782,56 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E20" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="F20" t="n">
-        <v>427</v>
+        <v>325.4</v>
       </c>
       <c r="G20" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01473515298033088</v>
+        <v>0.004334881344085608</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002693168728683304</v>
+        <v>0.008238013558866442</v>
       </c>
       <c r="J20" t="n">
-        <v>6.002693168728683</v>
+        <v>6.008238013558866</v>
       </c>
       <c r="K20" t="n">
-        <v>-1560.801806404749</v>
+        <v>-4774.266946935656</v>
       </c>
       <c r="L20" t="n">
-        <v>23.41202709607124</v>
+        <v>1497.171174435691</v>
       </c>
       <c r="M20" t="n">
-        <v>44159.28947446201</v>
+        <v>25309.73355292326</v>
       </c>
       <c r="N20" t="n">
-        <v>441.5928947446201</v>
+        <v>506.1946710584651</v>
       </c>
       <c r="O20" t="n">
-        <v>465.0049218406914</v>
+        <v>2003.365845494156</v>
       </c>
       <c r="P20" t="n">
-        <v>5880.977259189282</v>
+        <v>90854.27182424295</v>
       </c>
       <c r="Q20" t="n">
-        <v>-4104.750296498532</v>
+        <v>866710.8998139604</v>
       </c>
       <c r="R20" t="n">
-        <v>-2.338506541870029e-15</v>
-      </c>
-      <c r="S20" t="inlineStr"/>
+        <v>88276.41955715224</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1808,62 +1842,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5.372</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Aerogel</t>
+          <t>Espuma Elastomérica</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E21" t="n">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="F21" t="n">
-        <v>376.2</v>
+        <v>338.1</v>
       </c>
       <c r="G21" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02193264344044758</v>
+        <v>0.005833607471079498</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001809404134121451</v>
+        <v>0.006121878678982284</v>
       </c>
       <c r="J21" t="n">
-        <v>6.001809404134121</v>
+        <v>6.006121878678982</v>
       </c>
       <c r="K21" t="n">
-        <v>-1048.62395399377</v>
+        <v>-3547.879937477518</v>
       </c>
       <c r="L21" t="n">
-        <v>15.72935930990655</v>
+        <v>1112.586210990859</v>
       </c>
       <c r="M21" t="n">
-        <v>44159.28947446201</v>
+        <v>32849.55592153876</v>
       </c>
       <c r="N21" t="n">
-        <v>441.5928947446201</v>
+        <v>656.9911184307753</v>
       </c>
       <c r="O21" t="n">
-        <v>457.3222540545267</v>
+        <v>1769.577329421635</v>
       </c>
       <c r="P21" t="n">
-        <v>5888.659926975446</v>
+        <v>91088.06034031548</v>
       </c>
       <c r="Q21" t="n">
-        <v>-4052.424687289378</v>
+        <v>861466.4475583136</v>
       </c>
       <c r="R21" t="n">
-        <v>-2.308696256078145e-15</v>
-      </c>
-      <c r="S21" t="inlineStr"/>
+        <v>87742.26051084706</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1910,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1882,54 +1918,56 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E22" t="n">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>414.3</v>
+        <v>350.8</v>
       </c>
       <c r="G22" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01354607732973528</v>
+        <v>0.007277553454573952</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00292956021860391</v>
+        <v>0.004907375167988448</v>
       </c>
       <c r="J22" t="n">
-        <v>6.002929560218604</v>
+        <v>6.004907375167988</v>
       </c>
       <c r="K22" t="n">
-        <v>-1697.800376372917</v>
+        <v>-2844.025309418143</v>
       </c>
       <c r="L22" t="n">
-        <v>25.46700564559375</v>
+        <v>891.8631404470092</v>
       </c>
       <c r="M22" t="n">
         <v>40389.37829015426</v>
       </c>
       <c r="N22" t="n">
-        <v>403.8937829015426</v>
+        <v>807.7875658030852</v>
       </c>
       <c r="O22" t="n">
-        <v>429.3607885471363</v>
+        <v>1699.650706250094</v>
       </c>
       <c r="P22" t="n">
-        <v>5916.621392482836</v>
+        <v>91157.98696348703</v>
       </c>
       <c r="Q22" t="n">
-        <v>-92.07175048394129</v>
+        <v>854613.1750837016</v>
       </c>
       <c r="R22" t="n">
-        <v>-5.245395585007632e-17</v>
-      </c>
-      <c r="S22" t="inlineStr"/>
+        <v>87044.23957164094</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1940,11 +1978,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Aerogel</t>
+          <t>Espuma Elastomérica</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1957,45 +1995,47 @@
         <v>363.5</v>
       </c>
       <c r="G23" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01873262702153731</v>
+        <v>0.008670591531371154</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002118482848231906</v>
+        <v>0.00411902292700006</v>
       </c>
       <c r="J23" t="n">
-        <v>6.002118482848232</v>
+        <v>6.004119022927</v>
       </c>
       <c r="K23" t="n">
-        <v>-1227.74775347208</v>
+        <v>-2387.142831643493</v>
       </c>
       <c r="L23" t="n">
-        <v>18.4162163020812</v>
+        <v>748.5885218654061</v>
       </c>
       <c r="M23" t="n">
-        <v>40389.37829015426</v>
+        <v>46044.24506661588</v>
       </c>
       <c r="N23" t="n">
-        <v>403.8937829015426</v>
+        <v>920.8849013323177</v>
       </c>
       <c r="O23" t="n">
-        <v>422.3099992036238</v>
+        <v>1669.473423197724</v>
       </c>
       <c r="P23" t="n">
-        <v>5923.672181826349</v>
+        <v>91188.1642465394</v>
       </c>
       <c r="Q23" t="n">
-        <v>-44.04977972151391</v>
+        <v>849254.5933206045</v>
       </c>
       <c r="R23" t="n">
-        <v>-2.509548464727929e-17</v>
-      </c>
-      <c r="S23" t="inlineStr"/>
+        <v>86498.45618291004</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2046,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2014,52 +2054,52 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F24" t="n">
-        <v>401.6</v>
+        <v>376.2</v>
       </c>
       <c r="G24" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01232020715839027</v>
+        <v>0.01001619692642884</v>
       </c>
       <c r="I24" t="n">
-        <v>0.003221033321381128</v>
+        <v>0.003565708918529253</v>
       </c>
       <c r="J24" t="n">
-        <v>6.003221033321381</v>
+        <v>6.003565708918529</v>
       </c>
       <c r="K24" t="n">
-        <v>-1866.721001528129</v>
+        <v>-2066.47465563895</v>
       </c>
       <c r="L24" t="n">
-        <v>28.00081502292194</v>
+        <v>648.0295973207659</v>
       </c>
       <c r="M24" t="n">
-        <v>37561.94490192345</v>
+        <v>51699.11184307752</v>
       </c>
       <c r="N24" t="n">
-        <v>375.6194490192345</v>
+        <v>1033.98223686155</v>
       </c>
       <c r="O24" t="n">
-        <v>403.6202640421564</v>
+        <v>1682.011834182316</v>
       </c>
       <c r="P24" t="n">
-        <v>5942.361916987817</v>
+        <v>91175.62583555481</v>
       </c>
       <c r="Q24" t="n">
-        <v>2910.676862038039</v>
+        <v>843476.6225768412</v>
       </c>
       <c r="R24" t="n">
-        <v>1.658234092571218e-15</v>
+        <v>85909.9571001422</v>
       </c>
       <c r="S24" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2078,56 +2118,56 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Aerogel</t>
+          <t>Espuma Elastomérica</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F25" t="n">
+        <v>388.9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>21.49069237173569</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.01131750036919791</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.003155749525717511</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6.003155749525718</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-1828.886362706329</v>
+      </c>
+      <c r="L25" t="n">
+        <v>573.5238464870354</v>
+      </c>
+      <c r="M25" t="n">
+        <v>55469.02302738527</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1109.380460547706</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1682.904307034741</v>
+      </c>
+      <c r="P25" t="n">
+        <v>91174.73336270238</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>839697.948962511</v>
+      </c>
+      <c r="R25" t="n">
+        <v>85525.09084610092</v>
+      </c>
+      <c r="S25" t="n">
         <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>350.8</v>
-      </c>
-      <c r="G25" t="n">
-        <v>24.54629766251747</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.01541911344084322</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.002573711934644507</v>
-      </c>
-      <c r="J25" t="n">
-        <v>6.002573711934645</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-1491.571691736937</v>
-      </c>
-      <c r="L25" t="n">
-        <v>22.37357537605406</v>
-      </c>
-      <c r="M25" t="n">
-        <v>37561.94490192345</v>
-      </c>
-      <c r="N25" t="n">
-        <v>375.6194490192345</v>
-      </c>
-      <c r="O25" t="n">
-        <v>397.9930243952886</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5947.989156634684</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2949.003228722606</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.680068906565731e-15</v>
-      </c>
-      <c r="S25" t="n">
-        <v>13</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2144,52 +2184,52 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>388.9</v>
+        <v>401.6</v>
       </c>
       <c r="G26" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01105518840366241</v>
+        <v>0.01257733220030671</v>
       </c>
       <c r="I26" t="n">
-        <v>0.003589579693652922</v>
+        <v>0.002839669698289526</v>
       </c>
       <c r="J26" t="n">
-        <v>6.003589579693653</v>
+        <v>6.00283966969829</v>
       </c>
       <c r="K26" t="n">
-        <v>-2080.308749495637</v>
+        <v>-1645.705130709128</v>
       </c>
       <c r="L26" t="n">
-        <v>31.20463124243455</v>
+        <v>516.0797062049647</v>
       </c>
       <c r="M26" t="n">
-        <v>34734.51151369263</v>
+        <v>61123.88980384689</v>
       </c>
       <c r="N26" t="n">
-        <v>347.3451151369263</v>
+        <v>1222.477796076938</v>
       </c>
       <c r="O26" t="n">
-        <v>378.5497463793609</v>
+        <v>1738.557502281903</v>
       </c>
       <c r="P26" t="n">
-        <v>5967.432434650612</v>
+        <v>91119.08016745522</v>
       </c>
       <c r="Q26" t="n">
-        <v>5908.862148750894</v>
+        <v>833496.6709114173</v>
       </c>
       <c r="R26" t="n">
-        <v>3.366322380596264e-15</v>
+        <v>84893.4769790705</v>
       </c>
       <c r="S26" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2206,52 +2246,52 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E27" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="F27" t="n">
-        <v>376.2</v>
+        <v>414.3</v>
       </c>
       <c r="G27" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00974843338956807</v>
+        <v>0.01379825963502408</v>
       </c>
       <c r="I27" t="n">
-        <v>0.004070711990038944</v>
+        <v>0.002588419616301962</v>
       </c>
       <c r="J27" t="n">
-        <v>6.004070711990039</v>
+        <v>6.002588419616302</v>
       </c>
       <c r="K27" t="n">
-        <v>-2359.14466098414</v>
+        <v>-1500.095396862596</v>
       </c>
       <c r="L27" t="n">
-        <v>35.38716991476209</v>
+        <v>470.4176813003444</v>
       </c>
       <c r="M27" t="n">
-        <v>32849.55592153876</v>
+        <v>66778.75658030852</v>
       </c>
       <c r="N27" t="n">
-        <v>328.4955592153876</v>
+        <v>1335.57513160617</v>
       </c>
       <c r="O27" t="n">
-        <v>363.8827291301497</v>
+        <v>1805.992812906515</v>
       </c>
       <c r="P27" t="n">
-        <v>5982.099451899823</v>
+        <v>91051.64485683061</v>
       </c>
       <c r="Q27" t="n">
-        <v>7893.712807853786</v>
+        <v>827179.714314776</v>
       </c>
       <c r="R27" t="n">
-        <v>4.497106451653292e-15</v>
+        <v>84250.08099666261</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2264,56 +2304,56 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Aerogel</t>
+          <t>Espuma Elastomérica</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E28" t="n">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="F28" t="n">
-        <v>338.1</v>
+        <v>427</v>
       </c>
       <c r="G28" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01198374817255891</v>
+        <v>0.01498261841968526</v>
       </c>
       <c r="I28" t="n">
-        <v>0.003311461421844797</v>
+        <v>0.002383819799433695</v>
       </c>
       <c r="J28" t="n">
-        <v>6.003311461421845</v>
+        <v>6.002383819799434</v>
       </c>
       <c r="K28" t="n">
-        <v>-1919.127796945708</v>
+        <v>-1381.521406166221</v>
       </c>
       <c r="L28" t="n">
-        <v>28.78691695418562</v>
+        <v>433.2338449372851</v>
       </c>
       <c r="M28" t="n">
-        <v>30493.36143134641</v>
+        <v>74318.57894892403</v>
       </c>
       <c r="N28" t="n">
-        <v>304.9336143134641</v>
+        <v>1486.371578978481</v>
       </c>
       <c r="O28" t="n">
-        <v>333.7205312676498</v>
+        <v>1919.605423915766</v>
       </c>
       <c r="P28" t="n">
-        <v>6012.261649762323</v>
+        <v>90938.03224582135</v>
       </c>
       <c r="Q28" t="n">
-        <v>10455.33794039205</v>
+        <v>818524.4265839264</v>
       </c>
       <c r="R28" t="n">
-        <v>5.956483197510249e-15</v>
+        <v>83368.52082327567</v>
       </c>
       <c r="S28" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2330,52 +2370,52 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E29" t="n">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="F29" t="n">
-        <v>363.5</v>
+        <v>439.7</v>
       </c>
       <c r="G29" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H29" t="n">
-        <v>0.008397088836476083</v>
+        <v>0.01613253986427975</v>
       </c>
       <c r="I29" t="n">
-        <v>0.004725744872871473</v>
+        <v>0.002213911097157961</v>
       </c>
       <c r="J29" t="n">
-        <v>6.004725744872871</v>
+        <v>6.002213911097158</v>
       </c>
       <c r="K29" t="n">
-        <v>-2738.763099270196</v>
+        <v>-1283.052340106429</v>
       </c>
       <c r="L29" t="n">
-        <v>41.08144648905293</v>
+        <v>402.3547489594307</v>
       </c>
       <c r="M29" t="n">
-        <v>30022.12253330794</v>
+        <v>79973.44572538565</v>
       </c>
       <c r="N29" t="n">
-        <v>300.2212253330794</v>
+        <v>1599.468914507713</v>
       </c>
       <c r="O29" t="n">
-        <v>341.3026718221324</v>
+        <v>2001.823663467144</v>
       </c>
       <c r="P29" t="n">
-        <v>6004.67950920784</v>
+        <v>90855.81400626997</v>
       </c>
       <c r="Q29" t="n">
-        <v>10874.93590657386</v>
+        <v>812062.3290119682</v>
       </c>
       <c r="R29" t="n">
-        <v>6.195531255977666e-15</v>
+        <v>82710.34191194101</v>
       </c>
       <c r="S29" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2392,52 +2432,52 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>350.8</v>
+        <v>452.4</v>
       </c>
       <c r="G30" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H30" t="n">
-        <v>0.006997998197960414</v>
+        <v>0.01724997403891849</v>
       </c>
       <c r="I30" t="n">
-        <v>0.005670433644070272</v>
+        <v>0.00207050356596028</v>
       </c>
       <c r="J30" t="n">
-        <v>6.00567043364407</v>
+        <v>6.00207050356596</v>
       </c>
       <c r="K30" t="n">
-        <v>-3286.249012376539</v>
+        <v>-1199.941790304299</v>
       </c>
       <c r="L30" t="n">
-        <v>49.29373518564807</v>
+        <v>376.2919584120534</v>
       </c>
       <c r="M30" t="n">
-        <v>27194.68914507713</v>
+        <v>87513.26809400115</v>
       </c>
       <c r="N30" t="n">
-        <v>271.9468914507713</v>
+        <v>1750.265361880023</v>
       </c>
       <c r="O30" t="n">
-        <v>321.2406266364194</v>
+        <v>2126.557320292076</v>
       </c>
       <c r="P30" t="n">
-        <v>6024.741554393553</v>
+        <v>90731.08034944504</v>
       </c>
       <c r="Q30" t="n">
-        <v>13839.00916594608</v>
+        <v>803297.8532139757</v>
       </c>
       <c r="R30" t="n">
-        <v>7.884185670239289e-15</v>
+        <v>81817.66069273841</v>
       </c>
       <c r="S30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2450,56 +2490,56 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Aerogel</t>
+          <t>Espuma Elastomérica</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="F31" t="n">
-        <v>325.4</v>
+        <v>465.1</v>
       </c>
       <c r="G31" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H31" t="n">
-        <v>0.008417218463145807</v>
+        <v>0.01833670976961692</v>
       </c>
       <c r="I31" t="n">
-        <v>0.004714444497324166</v>
+        <v>0.001947799745721568</v>
       </c>
       <c r="J31" t="n">
-        <v>6.004714444497324</v>
+        <v>6.001947799745722</v>
       </c>
       <c r="K31" t="n">
-        <v>-2732.214067854994</v>
+        <v>-1128.829890690028</v>
       </c>
       <c r="L31" t="n">
-        <v>40.98321101782491</v>
+        <v>353.9918466995765</v>
       </c>
       <c r="M31" t="n">
-        <v>25780.97245096172</v>
+        <v>92225.65707438585</v>
       </c>
       <c r="N31" t="n">
-        <v>257.8097245096172</v>
+        <v>1844.513141487717</v>
       </c>
       <c r="O31" t="n">
-        <v>298.7929355274422</v>
+        <v>2198.504988187293</v>
       </c>
       <c r="P31" t="n">
-        <v>6047.189245502531</v>
+        <v>90659.13268154982</v>
       </c>
       <c r="Q31" t="n">
-        <v>15405.61404230612</v>
+        <v>797879.0714245734</v>
       </c>
       <c r="R31" t="n">
-        <v>8.7766920317148e-15</v>
+        <v>81265.74579835714</v>
       </c>
       <c r="S31" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -2516,52 +2556,52 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="E32" t="n">
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="F32" t="n">
-        <v>338.1</v>
+        <v>477.8</v>
       </c>
       <c r="G32" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H32" t="n">
-        <v>0.005547657072716127</v>
+        <v>0.01939439194929714</v>
       </c>
       <c r="I32" t="n">
-        <v>0.007152642098503748</v>
+        <v>0.00184158030646131</v>
       </c>
       <c r="J32" t="n">
-        <v>6.007152642098504</v>
+        <v>6.001841580306461</v>
       </c>
       <c r="K32" t="n">
-        <v>-4145.24964180913</v>
+        <v>-1067.271366399043</v>
       </c>
       <c r="L32" t="n">
-        <v>62.17874462713694</v>
+        <v>334.6875955687475</v>
       </c>
       <c r="M32" t="n">
-        <v>23424.77796076938</v>
+        <v>96938.04605477054</v>
       </c>
       <c r="N32" t="n">
-        <v>234.2477796076938</v>
+        <v>1938.760921095411</v>
       </c>
       <c r="O32" t="n">
-        <v>296.4265242348308</v>
+        <v>2273.448516664158</v>
       </c>
       <c r="P32" t="n">
-        <v>6049.555656795142</v>
+        <v>90584.18915307296</v>
       </c>
       <c r="Q32" t="n">
-        <v>17777.92583913877</v>
+        <v>792430.8758343685</v>
       </c>
       <c r="R32" t="n">
-        <v>1.012821557286197e-14</v>
+        <v>80710.83504339423</v>
       </c>
       <c r="S32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -2578,52 +2618,52 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="F33" t="n">
-        <v>325.4</v>
+        <v>490.5</v>
       </c>
       <c r="G33" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H33" t="n">
-        <v>0.004042160104597438</v>
+        <v>0.02042453658541032</v>
       </c>
       <c r="I33" t="n">
-        <v>0.009816065258178241</v>
+        <v>0.00174870113966108</v>
       </c>
       <c r="J33" t="n">
-        <v>6.009816065258178</v>
+        <v>6.001748701139661</v>
       </c>
       <c r="K33" t="n">
-        <v>-5688.812670243178</v>
+        <v>-1013.444077449189</v>
       </c>
       <c r="L33" t="n">
-        <v>85.33219005364768</v>
+        <v>317.807796782995</v>
       </c>
       <c r="M33" t="n">
-        <v>19654.86677646163</v>
+        <v>103535.3906273091</v>
       </c>
       <c r="N33" t="n">
-        <v>196.5486677646163</v>
+        <v>2070.707812546182</v>
       </c>
       <c r="O33" t="n">
-        <v>281.880857818264</v>
+        <v>2388.515609329177</v>
       </c>
       <c r="P33" t="n">
-        <v>6064.101323211708</v>
+        <v>90469.12206040794</v>
       </c>
       <c r="Q33" t="n">
-        <v>21646.90558631873</v>
+        <v>784703.7855842981</v>
       </c>
       <c r="R33" t="n">
-        <v>1.233240189251725e-14</v>
+        <v>79923.81383364872</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -2640,52 +2680,52 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="E34" t="n">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>312.7</v>
+        <v>503.2</v>
       </c>
       <c r="G34" t="n">
-        <v>24.54629766251747</v>
+        <v>21.49069237173569</v>
       </c>
       <c r="H34" t="n">
-        <v>0.002477137342534254</v>
+        <v>0.02142854393036145</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01601556645971414</v>
+        <v>0.001666771256452648</v>
       </c>
       <c r="J34" t="n">
-        <v>6.016015566459714</v>
+        <v>6.001666771256453</v>
       </c>
       <c r="K34" t="n">
-        <v>-9281.678045183877</v>
+        <v>-965.9623477195656</v>
       </c>
       <c r="L34" t="n">
-        <v>139.2251706777581</v>
+        <v>302.9179136127282</v>
       </c>
       <c r="M34" t="n">
-        <v>16827.43338823081</v>
+        <v>108247.7796076938</v>
       </c>
       <c r="N34" t="n">
-        <v>168.2743338823081</v>
+        <v>2164.955592153876</v>
       </c>
       <c r="O34" t="n">
-        <v>307.4995045600663</v>
+        <v>2467.873505766604</v>
       </c>
       <c r="P34" t="n">
-        <v>6038.482676469906</v>
+        <v>90389.76416397051</v>
       </c>
       <c r="Q34" t="n">
-        <v>24299.85384318765</v>
+        <v>779212.2490787458</v>
       </c>
       <c r="R34" t="n">
-        <v>1.3843806096379e-14</v>
+        <v>79364.48871072526</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
